--- a/2019.xlsx
+++ b/2019.xlsx
@@ -241,9 +241,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -390,36 +394,36 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="L16" activeCellId="0" sqref="L15:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="36.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="14.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="8.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -430,16 +434,16 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4" t="n">
         <v>1234</v>
       </c>
     </row>
@@ -450,16 +454,16 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4" t="n">
         <v>27</v>
       </c>
     </row>
@@ -470,16 +474,16 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4" t="n">
         <v>185</v>
       </c>
     </row>
@@ -490,16 +494,16 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4" t="n">
         <v>4403</v>
       </c>
     </row>
@@ -510,16 +514,16 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4" t="n">
         <v>25</v>
       </c>
     </row>
@@ -530,16 +534,16 @@
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4" t="n">
         <v>1359</v>
       </c>
     </row>
@@ -550,16 +554,16 @@
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4" t="n">
         <v>1132</v>
       </c>
     </row>
@@ -570,16 +574,16 @@
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>66</v>
       </c>
     </row>
@@ -590,13 +594,13 @@
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>16</v>
       </c>
     </row>
@@ -607,16 +611,16 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>5445</v>
       </c>
     </row>
@@ -627,16 +631,16 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>3774</v>
       </c>
     </row>
@@ -647,16 +651,16 @@
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="4" t="n">
         <v>480</v>
       </c>
     </row>
@@ -667,16 +671,16 @@
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="4" t="n">
         <v>1151</v>
       </c>
     </row>
@@ -687,16 +691,16 @@
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="4" t="n">
         <v>17</v>
       </c>
     </row>
@@ -707,16 +711,16 @@
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="4" t="n">
         <v>37</v>
       </c>
     </row>
@@ -727,16 +731,16 @@
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="4" t="n">
         <v>574</v>
       </c>
     </row>
@@ -747,16 +751,16 @@
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="4" t="n">
         <v>93</v>
       </c>
     </row>
@@ -767,13 +771,13 @@
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="4" t="n">
         <v>389</v>
       </c>
     </row>
@@ -784,16 +788,16 @@
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="4" t="n">
         <v>223</v>
       </c>
     </row>
@@ -804,16 +808,16 @@
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="4" t="n">
         <v>282</v>
       </c>
     </row>
@@ -824,16 +828,16 @@
       <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="4" t="n">
         <v>20</v>
       </c>
     </row>
@@ -844,16 +848,16 @@
       <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="4" t="n">
         <v>114</v>
       </c>
     </row>
@@ -864,16 +868,16 @@
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="4" t="n">
         <v>84</v>
       </c>
     </row>
@@ -884,13 +888,13 @@
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -901,16 +905,16 @@
       <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -921,16 +925,16 @@
       <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -941,16 +945,16 @@
       <c r="B28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="4" t="n">
         <v>198</v>
       </c>
     </row>
@@ -961,16 +965,16 @@
       <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="4" t="n">
         <v>131</v>
       </c>
     </row>
@@ -981,13 +985,13 @@
       <c r="B30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F30" s="4" t="n">
         <v>64</v>
       </c>
     </row>
@@ -998,16 +1002,16 @@
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1018,16 +1022,16 @@
       <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="3" t="n">
+      <c r="F32" s="4" t="n">
         <v>1910</v>
       </c>
     </row>
@@ -1038,16 +1042,16 @@
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="3" t="n">
+      <c r="F33" s="4" t="n">
         <v>115</v>
       </c>
     </row>
@@ -1058,16 +1062,16 @@
       <c r="B34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="3" t="n">
+      <c r="F34" s="4" t="n">
         <v>805</v>
       </c>
     </row>
@@ -1078,16 +1082,16 @@
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="3" t="n">
+      <c r="F35" s="4" t="n">
         <v>1179</v>
       </c>
     </row>
@@ -1098,16 +1102,16 @@
       <c r="B36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="3" t="n">
+      <c r="F36" s="4" t="n">
         <v>890</v>
       </c>
     </row>
@@ -1118,16 +1122,16 @@
       <c r="B37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="3" t="n">
+      <c r="F37" s="4" t="n">
         <v>366</v>
       </c>
     </row>
@@ -1138,16 +1142,16 @@
       <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="3" t="n">
+      <c r="F38" s="4" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1158,16 +1162,16 @@
       <c r="B39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="3" t="n">
+      <c r="F39" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1178,16 +1182,16 @@
       <c r="B40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="3" t="n">
+      <c r="F40" s="4" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1210,13 +1214,13 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L15:L16 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="1131.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
     </row>
